--- a/Histórico de Recomendações.xlsx
+++ b/Histórico de Recomendações.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milso\OneDrive\Cursos Python\WPR_advice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C8D2F1-03CF-4D48-8D6B-859BBF6CE51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4416B26-6E1A-4C04-AFAE-0667F9333044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11625" yWindow="750" windowWidth="8115" windowHeight="7410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="2310" windowWidth="15375" windowHeight="7410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,487 @@
     <author>Milson Fortunatto Neto</author>
   </authors>
   <commentList>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{25FF1CF3-ABA4-420B-8A0D-10ED89066CE3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Inverteu a média de 9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{C71308CB-BA6C-4130-9293-EF54858CC332}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Contra Semanal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{576A2318-3FA3-44C1-832E-A105025C292C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Contra Semanal e vai testar a m200</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{BBEDA683-53E4-487C-B4A6-973A12C231FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Próximo à resistência</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{A970DC49-D6AE-4AE4-B8E7-FE69B3EB5FDB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Próxima da m400</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{ACECA8AE-C682-46DE-8911-695C10A56FF6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Abriu com GAP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{95268850-5F44-487B-85D4-C75BC4A84633}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Setup 9.2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{72053B27-2655-4FB9-9856-7117F11AEB0B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Entre M200 e M400 no diário</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{D039F435-40F9-4BA3-B7BA-D900C848CD9C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tem que romper a resistência.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{F544C8BF-4F00-4915-B72C-1905F8869D39}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Setup 9.3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{6576AA98-EE20-42BF-8BCB-EF353B572F85}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Setup PC mm21</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{F79C4F10-8BFB-4BA5-A2B4-6439749356DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Em cima da média de 200</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{D336C8AC-ECB9-4A9F-BD4F-9962D6DD107F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Testando m400 e resistência próxima</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{408D9632-CCC5-4FDD-A40D-AA15C839F0E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Em cima da mm200</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0" shapeId="0" xr:uid="{2171E9C8-01A5-41A5-879A-F0D27385EAEE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Próximo á resistência</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{84D2503B-FCC0-4315-B48B-F269899AF1F2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Próximo da resistência</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{BB7B1CAD-2B5C-4636-98A2-A5DD2E5D2381}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Em cima de uma resistência. Observar rompimento.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{CE39E727-EF04-4AF7-9F9E-060D3D62EE3B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Próxima de uma resistência</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0" shapeId="0" xr:uid="{A6F04DC4-26D6-4D32-AB68-0DC3E8F25276}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Alta volatilidade</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{1A3F5D7A-802C-40F0-BEE1-B082EA67B802}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Próxima da mm200
+gráfico sujo</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D21" authorId="0" shapeId="0" xr:uid="{7851368B-C962-4EAD-9FCE-F39C2D558949}">
       <text>
         <r>
@@ -51,6 +532,174 @@
           </rPr>
           <t xml:space="preserve">
 Observar o que aconteceu no dia seguinte.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G21" authorId="0" shapeId="0" xr:uid="{D293A627-D0C3-4AFB-8172-77F56A8C850C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rompendo a m200</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{D21AB714-4607-4ACC-B3EA-15D1FB8F19B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Romper resistência</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{7079A4E2-73AE-4CDD-A434-E9ADDBCD9000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Semanal desfavorável</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{483C0AA4-B75A-4F34-AED9-B7E257B7AA24}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Semanal desfavorável</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{1F6BE55D-B75E-4D46-BE3D-D73EAF3A5E81}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Distante das médias</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{F2402018-B97C-493F-BCBD-7BF1F93F01CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tendência longa, sem referência</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{97090872-9805-4606-8175-5B67E2F097E5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Em cima de uma resistência. Observar rompimento</t>
         </r>
       </text>
     </comment>
@@ -59,7 +708,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>BOVA11</t>
   </si>
@@ -137,6 +786,42 @@
   </si>
   <si>
     <t>VIIA3</t>
+  </si>
+  <si>
+    <t>COGN3</t>
+  </si>
+  <si>
+    <t>BBAS3</t>
+  </si>
+  <si>
+    <t>27/04/2022</t>
+  </si>
+  <si>
+    <t>28/04/2022</t>
+  </si>
+  <si>
+    <t>04/05/2022</t>
+  </si>
+  <si>
+    <t>11/05/2022</t>
+  </si>
+  <si>
+    <t>12/05/2022</t>
+  </si>
+  <si>
+    <t>13/05/2022</t>
+  </si>
+  <si>
+    <t>16/05/2022</t>
+  </si>
+  <si>
+    <t>17/05/2022</t>
+  </si>
+  <si>
+    <t>Ativos</t>
+  </si>
+  <si>
+    <t>18/05/2022</t>
   </si>
 </sst>
 </file>
@@ -171,7 +856,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +866,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -197,18 +888,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -219,6 +916,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{666BECC6-7A35-4850-A896-0ADC449D0DBE}" name="Tabela1" displayName="Tabela1" ref="A1:J27" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:J27" xr:uid="{666BECC6-7A35-4850-A896-0ADC449D0DBE}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{98412C3C-228C-478D-8567-F98DB18A0215}" name="Ativos"/>
+    <tableColumn id="2" xr3:uid="{0FF5EA2D-A45D-47A0-BBCC-5739CEBE7051}" name="27/04/2022"/>
+    <tableColumn id="3" xr3:uid="{D52D2ECA-8BAB-4DC5-83D4-85FCC2C9954F}" name="28/04/2022"/>
+    <tableColumn id="4" xr3:uid="{9AEFB893-3975-40F3-A4EA-473777B34203}" name="04/05/2022"/>
+    <tableColumn id="5" xr3:uid="{E6DC5798-93A4-489F-ACA7-2F3276D940DA}" name="11/05/2022"/>
+    <tableColumn id="6" xr3:uid="{1B43CFBB-CB31-4FB4-9D8E-CFF6AC9CD934}" name="12/05/2022"/>
+    <tableColumn id="7" xr3:uid="{895001CE-F0CD-4530-86A7-A81D66844845}" name="13/05/2022"/>
+    <tableColumn id="8" xr3:uid="{B5358DEE-4C0D-4776-9539-A4EC70950875}" name="16/05/2022"/>
+    <tableColumn id="9" xr3:uid="{8CB8A897-F07C-4D88-A122-9D5320858DF1}" name="17/05/2022"/>
+    <tableColumn id="10" xr3:uid="{5E499A11-9EBE-4C4C-B6D0-E45E5D17F8C3}" name="18/05/2022"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,35 +1200,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1">
-        <v>44678</v>
-      </c>
-      <c r="C1" s="1">
-        <v>44679</v>
-      </c>
-      <c r="D1" s="1">
-        <v>44685</v>
-      </c>
-      <c r="E1" s="1">
-        <v>44692</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -526,36 +1262,66 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -565,13 +1331,25 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -579,7 +1357,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -587,12 +1365,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -606,41 +1393,71 @@
       <c r="E12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -648,7 +1465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -656,28 +1473,43 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="E23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -685,16 +1517,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="E25" t="s">
-        <v>24</v>
+      <c r="E25" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Histórico de Recomendações.xlsx
+++ b/Histórico de Recomendações.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milso\OneDrive\Cursos Python\WPR_advice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Cursos Python\WPR_advice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4416B26-6E1A-4C04-AFAE-0667F9333044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C70E60-09F7-4C15-9D11-C2FABE7171F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="2310" windowWidth="15375" windowHeight="7410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Notas de aprendizado" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -126,6 +137,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="T4" authorId="0" shapeId="0" xr:uid="{ED24C75E-E0F8-46F5-86A1-13891E396908}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Preço está em cima da mm400.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G5" authorId="0" shapeId="0" xr:uid="{A970DC49-D6AE-4AE4-B8E7-FE69B3EB5FDB}">
       <text>
         <r>
@@ -198,6 +233,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="L6" authorId="0" shapeId="0" xr:uid="{B91E9D97-2FBA-4EE1-B6E5-E998DD8441B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Com grande força compradora. Justamente por isso o movimento inverteu, causando prejuízo.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{C3A65FB9-5197-4D0F-8AFD-7FEF2BAD5723}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+No gráfico parece um PC de venda</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U6" authorId="0" shapeId="0" xr:uid="{BD55E79E-7E87-42C9-A773-1052FA7A3E06}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esperar condição no gráfico diário. Está em cima do Sato defense.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F7" authorId="0" shapeId="0" xr:uid="{72053B27-2655-4FB9-9856-7117F11AEB0B}">
       <text>
         <r>
@@ -222,6 +329,54 @@
         </r>
       </text>
     </comment>
+    <comment ref="S7" authorId="0" shapeId="0" xr:uid="{FCE2D9E8-AE78-44E1-855D-419DEE9D81FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Não configura um PC de venda ainda nem um 9.2 ou 9.3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T7" authorId="0" shapeId="0" xr:uid="{5F2CEBFD-11C8-4823-897B-A6DD5C9BC638}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Contra tendência.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G8" authorId="0" shapeId="0" xr:uid="{D039F435-40F9-4BA3-B7BA-D900C848CD9C}">
       <text>
         <r>
@@ -246,6 +401,151 @@
         </r>
       </text>
     </comment>
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{E39A779F-CEE3-4FBF-89DB-1AB06AEE43B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Compra no semanal, próximo da resistência.
+Parece que está formando um OCO.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T8" authorId="0" shapeId="0" xr:uid="{CE5F4BAA-7924-4423-9734-D48A5C05F9D4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Contra tendência</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T9" authorId="0" shapeId="0" xr:uid="{2A73C92B-B2C5-4141-801E-9EBBD233C76A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Entre as médias 200 e 400, movimento contra tendência, mas interessante.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O10" authorId="0" shapeId="0" xr:uid="{447AC01E-0C22-42EE-A301-80EDEF0557B1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Leque das médias muito aberto, próximo do topo histórico.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R10" authorId="0" shapeId="0" xr:uid="{F9D43869-3622-4AD9-A861-7DCE9D24AA3D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Leque das médias está bem aberto.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S10" authorId="0" shapeId="0" xr:uid="{6C71A13F-7836-468C-926D-883391B99DD7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Resistência forte acima do movimento pelo gráfico de densidade de preço. Apesar disso fez um excelente movimento. Perdi.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G11" authorId="0" shapeId="0" xr:uid="{F544C8BF-4F00-4915-B72C-1905F8869D39}">
       <text>
         <r>
@@ -290,7 +590,31 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Setup PC mm21</t>
+Setup PC mm21. Deu certo depois de 17 dias. Fiz a análise no gráfico diário, semanal não estava tão favorável.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L11" authorId="0" shapeId="0" xr:uid="{2CA6081A-DD1D-4546-BA87-E95703863B6A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Com grande força compradora</t>
         </r>
       </text>
     </comment>
@@ -366,6 +690,105 @@
         </r>
       </text>
     </comment>
+    <comment ref="L12" authorId="0" shapeId="0" xr:uid="{3146A459-A76F-444B-9D4D-2C5159B5D252}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Entre mm200 e mm400, e ambas próximas entre si.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O12" authorId="0" shapeId="0" xr:uid="{DCD5AF22-55BA-42EF-A8EB-7C564E051740}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Cuidado que o preço está distante da mm9.
+Depois: Não houve confirmação da tendência.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O13" authorId="0" shapeId="0" xr:uid="{D615F977-67FA-4053-B0A5-1AE5DEF4743F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Foi perfeito!!!
+100% de lucro</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T14" authorId="0" shapeId="0" xr:uid="{0BD77A17-2A70-4652-9AFA-08F3498059D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Próxima de uma resistência de 2019.
+Esticado no gráfico diário.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H15" authorId="0" shapeId="0" xr:uid="{2171E9C8-01A5-41A5-879A-F0D27385EAEE}">
       <text>
         <r>
@@ -414,6 +837,79 @@
         </r>
       </text>
     </comment>
+    <comment ref="N15" authorId="0" shapeId="0" xr:uid="{58B506EE-54B6-44FF-B5D4-56F24B5C0F5C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Força compradora forte no semanal. Médias emboladas no semanal.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{6232A143-D788-4712-944C-7B77155F4FC4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Relação Stop loss x Stop Gain menor que 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R16" authorId="0" shapeId="0" xr:uid="{DBBB45F5-B285-411A-B1A9-5195B97DE278}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Preço muito próximo da média de 200.
+Contra dentência.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F17" authorId="0" shapeId="0" xr:uid="{BB7B1CAD-2B5C-4636-98A2-A5DD2E5D2381}">
       <text>
         <r>
@@ -459,6 +955,30 @@
           </rPr>
           <t xml:space="preserve">
 Próxima de uma resistência</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S17" authorId="0" shapeId="0" xr:uid="{021D920B-AC43-4100-B372-6CBBF131ED09}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+tendência não está bem definida.</t>
         </r>
       </text>
     </comment>
@@ -511,6 +1031,126 @@
         </r>
       </text>
     </comment>
+    <comment ref="R19" authorId="0" shapeId="0" xr:uid="{41AA2CE0-2E99-48D1-B737-5A91DABBD69D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Preço próximo da MM200 e contra tendência.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T19" authorId="0" shapeId="0" xr:uid="{C5582C2C-236B-4ABC-9230-1537BBDCEC40}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Contra tendência</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V19" authorId="0" shapeId="0" xr:uid="{35ABC537-86E5-4750-B5A3-38825D3D5B9D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+A mm9 não está acima da mm21. Parece uma correção de queda.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M20" authorId="0" shapeId="0" xr:uid="{3ECA91CD-1D31-45D0-962B-9AC6C46B1CFD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Grito de compra, contra o semanal.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O20" authorId="0" shapeId="0" xr:uid="{47E70D0A-D751-414D-9C89-62DCE70F0CA5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Foi favorável, mas perdi o movimento.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D21" authorId="0" shapeId="0" xr:uid="{7851368B-C962-4EAD-9FCE-F39C2D558949}">
       <text>
         <r>
@@ -583,6 +1223,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="P21" authorId="0" shapeId="0" xr:uid="{8CCDA9EC-26A0-4CE7-B7A4-4156625FA118}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Contra tendência e gráfico lateralizado.
+Alta incerteza.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="J22" authorId="0" shapeId="0" xr:uid="{7079A4E2-73AE-4CDD-A434-E9ADDBCD9000}">
       <text>
         <r>
@@ -607,6 +1272,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="V22" authorId="0" shapeId="0" xr:uid="{60B2280D-DF96-4495-AE08-EF6009ED4367}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Movimento favorável, correção de alta. Setup 9.3.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E23" authorId="0" shapeId="0" xr:uid="{483C0AA4-B75A-4F34-AED9-B7E257B7AA24}">
       <text>
         <r>
@@ -651,7 +1340,179 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Distante das médias</t>
+Distante das médias.
+Foi favorável ao método.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N23" authorId="0" shapeId="0" xr:uid="{B3DEEA55-FB00-41A9-94C3-BF925911D827}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Topo histórico, força vendedora forte no semanal.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P23" authorId="0" shapeId="0" xr:uid="{C043ABCA-536B-40AB-8069-4A64E3FEB346}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Risco de OCO, se der condição de entrada no diário é operação para arriscar no máximo, 30% de ganho.
+Relação menor que 1/1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q23" authorId="0" shapeId="0" xr:uid="{BD37B618-A482-453B-9639-544E831332C9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Contra tendência</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S23" authorId="0" shapeId="0" xr:uid="{05CF8D10-CD1C-4B39-9A90-EE385E7BC0F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bem apoiada pelas médias e pelo volume.
+Obtive 100% de ganho.
+Mas foi difícil entrar na operação (liquidez).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T23" authorId="0" shapeId="0" xr:uid="{4EEEFB38-B1E2-454B-83A4-C81C0194BE45}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Está em cima de um suporte.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S24" authorId="0" shapeId="0" xr:uid="{30B09B30-77A8-4E10-8F85-5B3D1DD238ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Testando a mm9 no semanal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U24" authorId="0" shapeId="0" xr:uid="{C091E74A-518A-4909-BC40-4226015A82F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Está em cima da Sato defense, observar teste e confirmação.</t>
         </r>
       </text>
     </comment>
@@ -679,6 +1540,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="T25" authorId="0" shapeId="0" xr:uid="{A5302FD6-583F-4F2A-92F3-E01D7B1F241F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Talvez tenha baixa liquidez, tá no fundo do poço.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F27" authorId="0" shapeId="0" xr:uid="{97090872-9805-4606-8175-5B67E2F097E5}">
       <text>
         <r>
@@ -700,6 +1585,79 @@
           </rPr>
           <t xml:space="preserve">
 Em cima de uma resistência. Observar rompimento</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L27" authorId="0" shapeId="0" xr:uid="{87A3E324-D132-4DFC-8529-CEE9EAF4AC54}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rompeu uma resitência, mas está longe da mm9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N27" authorId="0" shapeId="0" xr:uid="{3EE90994-1EB9-4877-9705-06E7D1C4FC2E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Resistência muito próxima. Força vendedora forte.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P27" authorId="0" shapeId="0" xr:uid="{2E33EAFB-6C66-4D62-AD12-98E0F9191864}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milson Fortunatto Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+PC de Compra no semanal, aguardar confirmação no diário.
+MM9 não está abrindo distanciamento com relação mm21. Gradiente fraco!!!</t>
         </r>
       </text>
     </comment>
@@ -708,7 +1666,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="54">
   <si>
     <t>BOVA11</t>
   </si>
@@ -822,13 +1780,61 @@
   </si>
   <si>
     <t>18/05/2022</t>
+  </si>
+  <si>
+    <t>19/05/2022</t>
+  </si>
+  <si>
+    <t>20/05/2022</t>
+  </si>
+  <si>
+    <t>Se o preço estiver entre as médias de 200 e 400 no semanal(Principalmente se alinhamento não favorece), executar estratégia rápida (ganhos até 20%)</t>
+  </si>
+  <si>
+    <t>26/05/2022</t>
+  </si>
+  <si>
+    <t>Atualizar os dados após às 20h</t>
+  </si>
+  <si>
+    <t>27/05/2022</t>
+  </si>
+  <si>
+    <t>Apesar dos padrões, o que define a aceitação de uma indicação é a probabilidade de acerto. Se perdeu o tempo de entrar, deixe passar. O mais importante é proteger o capital (sobreviver).</t>
+  </si>
+  <si>
+    <t>Apesar da proximidade da resistência, sempre reparar se o preço está bem apoiado pela média de 9 períodos (distância entre eles). Se estiver próximo, grande probabilidade de rompimento.</t>
+  </si>
+  <si>
+    <t>05/06/2022</t>
+  </si>
+  <si>
+    <t>12/06/2022</t>
+  </si>
+  <si>
+    <t>25/06/2022</t>
+  </si>
+  <si>
+    <t>03/07/2022</t>
+  </si>
+  <si>
+    <t>17/07/2022</t>
+  </si>
+  <si>
+    <t>24/07/2022</t>
+  </si>
+  <si>
+    <t>15/05/2022</t>
+  </si>
+  <si>
+    <t>21/08/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,6 +1860,14 @@
       <color indexed="81"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -888,7 +1902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -897,6 +1911,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,9 +1935,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{666BECC6-7A35-4850-A896-0ADC449D0DBE}" name="Tabela1" displayName="Tabela1" ref="A1:J27" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:J27" xr:uid="{666BECC6-7A35-4850-A896-0ADC449D0DBE}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{666BECC6-7A35-4850-A896-0ADC449D0DBE}" name="Tabela1" displayName="Tabela1" ref="A1:V27" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:V27" xr:uid="{666BECC6-7A35-4850-A896-0ADC449D0DBE}"/>
+  <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{98412C3C-228C-478D-8567-F98DB18A0215}" name="Ativos"/>
     <tableColumn id="2" xr3:uid="{0FF5EA2D-A45D-47A0-BBCC-5739CEBE7051}" name="27/04/2022"/>
     <tableColumn id="3" xr3:uid="{D52D2ECA-8BAB-4DC5-83D4-85FCC2C9954F}" name="28/04/2022"/>
@@ -932,6 +1948,18 @@
     <tableColumn id="8" xr3:uid="{B5358DEE-4C0D-4776-9539-A4EC70950875}" name="16/05/2022"/>
     <tableColumn id="9" xr3:uid="{8CB8A897-F07C-4D88-A122-9D5320858DF1}" name="17/05/2022"/>
     <tableColumn id="10" xr3:uid="{5E499A11-9EBE-4C4C-B6D0-E45E5D17F8C3}" name="18/05/2022"/>
+    <tableColumn id="11" xr3:uid="{3075650F-62EB-463B-8CCE-8391A96A5FE9}" name="19/05/2022"/>
+    <tableColumn id="12" xr3:uid="{089B7CD5-252B-4129-9DF8-7E1C17E6173C}" name="20/05/2022"/>
+    <tableColumn id="13" xr3:uid="{4BD4475F-FA6E-4994-B1A1-0DD127D08037}" name="26/05/2022"/>
+    <tableColumn id="14" xr3:uid="{2F24CC00-A3E5-40CA-B125-D9CD6621717E}" name="27/05/2022"/>
+    <tableColumn id="15" xr3:uid="{9A6E8BF0-3443-4BBC-AA8A-39C24D25F3CA}" name="05/06/2022"/>
+    <tableColumn id="16" xr3:uid="{21F7BDF9-872E-4701-88A9-5731787185BC}" name="12/06/2022"/>
+    <tableColumn id="17" xr3:uid="{975E8954-2294-47B8-8E5D-165FABF56AB3}" name="25/06/2022"/>
+    <tableColumn id="18" xr3:uid="{BCDB1D4C-9196-4698-A4B5-E3C45C17DBB8}" name="03/07/2022"/>
+    <tableColumn id="19" xr3:uid="{ED0C14B7-5B91-4804-9471-A5F7332173E6}" name="17/07/2022"/>
+    <tableColumn id="20" xr3:uid="{D66D8A54-5912-47E5-BEDD-E835F5BD1037}" name="24/07/2022"/>
+    <tableColumn id="21" xr3:uid="{731E4047-890F-4A09-A4FE-F3C0C090EB7D}" name="15/05/2022"/>
+    <tableColumn id="22" xr3:uid="{E55B0941-F750-431A-A1D2-1C1B38D274F3}" name="21/08/2022"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1200,23 +2228,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="22" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -1247,8 +2277,44 @@
       <c r="J1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1261,8 +2327,11 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1273,7 +2342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1289,8 +2358,11 @@
       <c r="I4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="T4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1301,7 +2373,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1320,8 +2392,20 @@
       <c r="I6" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="L6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1334,8 +2418,14 @@
       <c r="F7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="S7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1348,24 +2438,48 @@
       <c r="I8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="N8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="O10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1378,8 +2492,14 @@
       <c r="J11" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="L11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1402,18 +2522,33 @@
       <c r="J12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="O13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="T14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1426,13 +2561,22 @@
       <c r="J15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="N15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1445,8 +2589,11 @@
       <c r="J17" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="S17" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1457,23 +2604,41 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="R19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" t="s">
+        <v>22</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="M20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1486,16 +2651,22 @@
       <c r="H21" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="P21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="J22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="V22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1508,33 +2679,69 @@
       <c r="I23" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="N23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="S24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="T25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1545,4 +2752,39 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE221B43-F5BA-4137-A9D6-F378865587DC}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>